--- a/data/output/cluster_explicacao.xlsx
+++ b/data/output/cluster_explicacao.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Possível perda: Baixo valor monetário, baixa frequência, compras não tão recentes.</t>
+          <t>Alerta: Baixo valor monetário, baixa frequência, compras não tão recentes.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
